--- a/experimentos/ResultadosExperimentos.xlsx
+++ b/experimentos/ResultadosExperimentos.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="640" windowWidth="24640" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Desbalanceado" sheetId="1" r:id="rId1"/>
-    <sheet name="Balanceado" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>topn</t>
   </si>
@@ -62,9 +61,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,16 +161,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -556,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -567,7 +564,7 @@
     <col min="2" max="12" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:14">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -582,7 +579,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -611,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>1</v>
       </c>
@@ -642,7 +639,7 @@
         <v>0.19973486522315501</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>2</v>
       </c>
@@ -672,8 +669,12 @@
       <c r="L5" s="1">
         <v>0.23464427750773301</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="N5">
+        <f ca="1">TRUNC(RAND()*100)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>3</v>
       </c>
@@ -704,7 +705,7 @@
         <v>0.26557666813963698</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>4</v>
       </c>
@@ -735,7 +736,7 @@
         <v>0.31197525408749399</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>5</v>
       </c>
@@ -766,7 +767,7 @@
         <v>0.33716305788775902</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>10</v>
       </c>
@@ -797,7 +798,7 @@
         <v>0.40433053468846603</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>15</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0.42863455589924798</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>20</v>
       </c>
@@ -855,7 +856,7 @@
         <v>0.45956694653115299</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>25</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0.51701281484754702</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>30</v>
       </c>
@@ -909,7 +910,7 @@
         <v>0.52098983650022002</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>35</v>
       </c>
@@ -936,7 +937,7 @@
         <v>0.55987627043747201</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>40</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0.58638974812196198</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>45</v>
       </c>
@@ -1185,595 +1186,6 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="I2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="12" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.48938611589213998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.55933952528379705</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.35978835978835899</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>0.37693327441449398</v>
-      </c>
-      <c r="J4" s="4">
-        <v>6.00972160848431E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.23950508174988899</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6.00972160848431E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.51556916794282703</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.55720164609053502</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.43263757115749502</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>0.446310207688908</v>
-      </c>
-      <c r="J5" s="4">
-        <v>9.3680954485196602E-2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.29916040653999099</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.10075121520105999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.52154750244857895</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.45036868973340899</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.45075125208681099</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>0.47061422889969001</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.11268228015907999</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.35086168802474499</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.119310649580203</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.52591894439208298</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.46093340325117899</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.48888888888888798</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>0.49315068493150599</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.129474149359257</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.38842244807777199</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.14582412726469199</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.551756007393715</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.46402349486049899</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.49929873772791</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>0.52761820592134301</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.14405656208572601</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.41891294741493501</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.15731330092797099</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.54185218165627702</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.476555455365193</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.53273137697516904</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>0.53778170570039696</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.20017675651789599</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.467079098541758</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.20857269111798499</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.53778170570039696</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.496656263932233</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.55732801595214299</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>0.53778170570039696</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.241272646928855</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.49226690234202303</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.247017233760494</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.54838709677419295</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>0.53345148427115596</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.57847533632286996</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>0.54838709677419295</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>0.53203711886875804</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.28501988510826298</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>0.55349248452696698</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.59296482412060303</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <v>0.55324790101635002</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.31285903667697701</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.55148033583738398</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>0.55722492266902302</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.60845295055821302</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <v>0.55148033583738398</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>0.55722492266902302</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.33716305788775902</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.57269111798497496</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>0.56031816173221305</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.62108479755538504</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>0.57269111798497496</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>0.56031816173221305</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.35925762262483402</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.57711003093238999</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>0.57136544410075096</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.63142437591776801</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>0.57711003093238999</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <v>0.57136544410075096</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.38002651347768401</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.57711003093238999</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>0.58418029164825402</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.63457330415754898</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>0.57711003093238999</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>0.58418029164825402</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.38444542642509899</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.57490057445868303</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <v>0.57401679186919996</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <v>0.57490057445868303</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
-        <v>0.57401679186919996</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.58462218294299595</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>0.58992487847989294</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>0.58462218294299595</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>0.58992487847989294</v>
-      </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19">
-        <v>70</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.59213433495360102</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>0.58329650905877095</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>0.59213433495360102</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>0.58329650905877095</v>
-      </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20">
-        <v>80</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.59787892178524005</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>0.59390190013256705</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>0.59787892178524005</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
-        <v>0.59390190013256705</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21">
-        <v>90</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.60097216084843097</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>0.60141405214317201</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>0.60097216084843097</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>0.60141405214317201</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.59964648696420597</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>0.60715863897481204</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>0.59964648696420597</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>0.60715863897481204</v>
-      </c>
-      <c r="L22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
